--- a/data/input/absenteeism_data_21.xlsx
+++ b/data/input/absenteeism_data_21.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64341</v>
+        <v>36607</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leandro da Rosa</t>
+          <t>Kamilly Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>6489.86</v>
+        <v>11486.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>46838</v>
+        <v>16474</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Alice Melo</t>
+          <t>Luiz Otávio Rezende</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>3405.2</v>
+        <v>4713.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80158</v>
+        <v>72947</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>João Felipe da Cruz</t>
+          <t>Leandro Melo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>8169.01</v>
+        <v>10347.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79235</v>
+        <v>1439</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Igor Almeida</t>
+          <t>Dra. Cecília Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,24 +584,24 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>5256.7</v>
+        <v>7226.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>42467</v>
+        <v>50039</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Felipe da Paz</t>
+          <t>Vicente Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,22 +610,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>11674.89</v>
+        <v>8179.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70272</v>
+        <v>3724</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Felipe Viana</t>
+          <t>Thomas Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,84 +635,84 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>10033.34</v>
+        <v>11965.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>87451</v>
+        <v>52327</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laís Costela</t>
+          <t>Benjamin Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>9980.690000000001</v>
+        <v>11136.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71924</v>
+        <v>11949</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dra. Helena Porto</t>
+          <t>Dra. Maria Cecília Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>9646.290000000001</v>
+        <v>4875.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32303</v>
+        <v>91664</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marcela Freitas</t>
+          <t>Ana Lívia Mendes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,31 +722,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>7665.3</v>
+        <v>12312.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71848</v>
+        <v>52374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Cecília Nascimento</t>
+          <t>Brenda Santos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>7499.12</v>
+        <v>4716.82</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_21.xlsx
+++ b/data/input/absenteeism_data_21.xlsx
@@ -476,21 +476,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36607</v>
+        <v>95592</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kamilly Castro</t>
+          <t>Dr. Thomas Moraes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -500,50 +500,50 @@
         <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>11486.06</v>
+        <v>9931.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16474</v>
+        <v>80078</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Otávio Rezende</t>
+          <t>André Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>4713.18</v>
+        <v>5452.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72947</v>
+        <v>48637</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leandro Melo</t>
+          <t>Lorena Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,216 +552,216 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>10347.02</v>
+        <v>11672.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1439</v>
+        <v>61263</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Cecília Vieira</t>
+          <t>Sra. Emanuella Fogaça</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>7226.64</v>
+        <v>4956.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50039</v>
+        <v>76968</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vicente Nogueira</t>
+          <t>Maria Alice Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>8179.12</v>
+        <v>12476.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3724</v>
+        <v>43312</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thomas Silveira</t>
+          <t>Caroline da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>11965.59</v>
+        <v>7462.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>52327</v>
+        <v>40365</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Benjamin Azevedo</t>
+          <t>Marcela da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45088</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>11136.73</v>
+        <v>11973.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11949</v>
+        <v>20985</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dra. Maria Cecília Fogaça</t>
+          <t>Elisa Gomes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>4875.27</v>
+        <v>11066.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91664</v>
+        <v>24849</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Lívia Mendes</t>
+          <t>Heloísa Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45103</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>12312.63</v>
+        <v>5944.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>52374</v>
+        <v>19740</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brenda Santos</t>
+          <t>Davi Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>4716.82</v>
+        <v>8637.129999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_21.xlsx
+++ b/data/input/absenteeism_data_21.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95592</v>
+        <v>60315</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Thomas Moraes</t>
+          <t>Sra. Laura Farias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>9931.51</v>
+        <v>4668.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80078</v>
+        <v>99522</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>André Cardoso</t>
+          <t>Yasmin Dias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,51 +523,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>5452.42</v>
+        <v>7272.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48637</v>
+        <v>64267</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lorena Carvalho</t>
+          <t>Danilo da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>11672.37</v>
+        <v>3561.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61263</v>
+        <v>24587</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Emanuella Fogaça</t>
+          <t>Maria Fernanda Carvalho</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,89 +577,89 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>4956.17</v>
+        <v>4562.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76968</v>
+        <v>42083</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Alice Rocha</t>
+          <t>Dr. Guilherme Nascimento</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>12476.3</v>
+        <v>5165.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43312</v>
+        <v>15745</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Caroline da Cruz</t>
+          <t>Sophia Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>7462.74</v>
+        <v>5751.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40365</v>
+        <v>12422</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marcela da Cruz</t>
+          <t>Giovanna Ferreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>11973.47</v>
+        <v>3506.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20985</v>
+        <v>38300</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elisa Gomes</t>
+          <t>Alice Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>11066.15</v>
+        <v>8879.549999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24849</v>
+        <v>35527</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heloísa Santos</t>
+          <t>Julia Cavalcanti</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>5944.88</v>
+        <v>6091.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19740</v>
+        <v>473</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Monteiro</t>
+          <t>Daniela Nogueira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>8637.129999999999</v>
+        <v>4086.96</v>
       </c>
     </row>
   </sheetData>
